--- a/datasets/one_two.xlsx
+++ b/datasets/one_two.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weswa\Documents\R Working Directory\UnevenCrimeDrop\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DBF56C-1931-4138-BE12-D8857E7FAE1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2E4BB7-C260-4139-9766-F2A3DAEC57D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="2295" windowWidth="28800" windowHeight="18000" xr2:uid="{D91A169A-DAA4-4990-80E3-5DF7C40BC6B4}"/>
+    <workbookView xWindow="6960" yWindow="2955" windowWidth="28710" windowHeight="17985" xr2:uid="{D91A169A-DAA4-4990-80E3-5DF7C40BC6B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Brå (exkl. fylleri)</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>Prosecutions  (excl. road traffic ordinance)</t>
+  </si>
+  <si>
+    <t>Brå (exkl. public intoxication)</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,16 +465,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/datasets/one_two.xlsx
+++ b/datasets/one_two.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weswa\Documents\R Working Directory\UnevenCrimeDrop\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2E4BB7-C260-4139-9766-F2A3DAEC57D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F842BE85-2760-4464-913E-7EF664102582}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="2955" windowWidth="28710" windowHeight="17985" xr2:uid="{D91A169A-DAA4-4990-80E3-5DF7C40BC6B4}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{D91A169A-DAA4-4990-80E3-5DF7C40BC6B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,13 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Prosecutions  (inc. road traffic ordinance)</t>
+    <t>Brå (exkl. public intoxication)</t>
   </si>
   <si>
-    <t>Prosecutions  (excl. road traffic ordinance)</t>
+    <t>Prosecutions statistics (excl. road traffic ordinance)</t>
   </si>
   <si>
-    <t>Brå (exkl. public intoxication)</t>
+    <t>Prosecutions statistics (inc. road traffic ordinance)</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,10 +471,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/datasets/one_two.xlsx
+++ b/datasets/one_two.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weswa\Documents\R Working Directory\UnevenCrimeDrop\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F842BE85-2760-4464-913E-7EF664102582}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34171E0-342A-4549-985E-FC94F0E5FB14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{D91A169A-DAA4-4990-80E3-5DF7C40BC6B4}"/>
+    <workbookView xWindow="3090" yWindow="3000" windowWidth="28710" windowHeight="17985" xr2:uid="{D91A169A-DAA4-4990-80E3-5DF7C40BC6B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,13 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Brå (exkl. public intoxication)</t>
+    <t>Convictions statistics (excl. road traffic ordinance)</t>
   </si>
   <si>
-    <t>Prosecutions statistics (excl. road traffic ordinance)</t>
+    <t>Convictions statistics (inc. road traffic ordinance)</t>
   </si>
   <si>
-    <t>Prosecutions statistics (inc. road traffic ordinance)</t>
+    <t>The Swedish National Council for Crime Prevention (exkl. public intoxication)</t>
   </si>
 </sst>
 </file>
@@ -452,15 +452,15 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" thickTop="1" x14ac:dyDescent="0.25">
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
